--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD096C7-D2AA-46E8-A001-9D59FD267DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B638D7-5FB4-477B-89B6-5C6CE6DC8CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>GlycerinA</t>
+    <t>GlycerinB</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>GlycerinA</v>
+        <v>GlycerinB</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B638D7-5FB4-477B-89B6-5C6CE6DC8CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E65FCB-26CB-4E8F-9D56-02839F8D7575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>GlycerinB</t>
+    <t>Glycerinc</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>GlycerinB</v>
+        <v>Glycerinc</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E65FCB-26CB-4E8F-9D56-02839F8D7575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728E27DC-1C4B-45F6-8425-DB4FAEAAA178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Glycerinc</t>
+    <t>GlycerinD</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Glycerinc</v>
+        <v>GlycerinD</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728E27DC-1C4B-45F6-8425-DB4FAEAAA178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D117E-F203-463A-BE06-A2C11D5FDB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>GlycerinD</t>
+    <t>Dcold</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>GlycerinD</v>
+        <v>Dcold</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D117E-F203-463A-BE06-A2C11D5FDB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C429E-5333-4CD4-B5D2-17EBAB1090FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="3240" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Dcold</t>
+    <t>DcoldA</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dcold</v>
+        <v>DcoldA</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C429E-5333-4CD4-B5D2-17EBAB1090FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A63C39-D276-40ED-A658-DA378FA3315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="3240" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A63C39-D276-40ED-A658-DA378FA3315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0864DD1-95B6-49A9-9257-6AE8A44C3B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE21942-4C65-4C3C-9E26-C7BBADC81DED}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1283,7 @@
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0864DD1-95B6-49A9-9257-6AE8A44C3B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EED3C3-C516-479B-B1E5-C7A6638E64A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>DcoldA</t>
+    <t>DcoldB</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>DcoldA</v>
+        <v>DcoldB</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1273,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE21942-4C65-4C3C-9E26-C7BBADC81DED}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EED3C3-C516-479B-B1E5-C7A6638E64A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB9EABC-C09E-4790-8803-39E13B1F4EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>DcoldB</t>
+    <t>DcoldC</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>DcoldB</v>
+        <v>DcoldC</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB9EABC-C09E-4790-8803-39E13B1F4EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22857171-7DAE-42C0-B5D1-0121BD346AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>DcoldC</t>
+    <t>DcoldE</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>DcoldC</v>
+        <v>DcoldE</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22857171-7DAE-42C0-B5D1-0121BD346AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13065D31-4FBB-4338-BBFD-2B3D844325CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <sheet name="BatchDecrement" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13065D31-4FBB-4338-BBFD-2B3D844325CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6ED841-75F2-43B5-86C1-8C4A6CB152CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <sheet name="BatchDecrement" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -300,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>DcoldE</t>
+    <t>Vicks100</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>DcoldE</v>
+        <v>Vicks100</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6ED841-75F2-43B5-86C1-8C4A6CB152CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE0FEA3-9AAF-4669-9450-151342C378A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Vicks100</t>
+    <t>Vicks150</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Vicks100</v>
+        <v>Vicks150</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE0FEA3-9AAF-4669-9450-151342C378A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DE5641-9A2B-4CE4-91D3-F23DFD7303B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Vicks150</t>
+    <t>IBU Profen</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Vicks150</v>
+        <v>IBU Profen</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DE5641-9A2B-4CE4-91D3-F23DFD7303B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AA661E-CC3A-4136-8455-FCE2479EC9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>IBU Profen</t>
+    <t>IBU 100 MG</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU Profen</v>
+        <v>IBU 100 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AA661E-CC3A-4136-8455-FCE2479EC9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE2C309-888F-4BF3-B2FB-CEC17D4393B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="3510" windowWidth="13440" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>IBU 100 MG</t>
+    <t>IBU 200 MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 100 MG</v>
+        <v>IBU 200 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE2C309-888F-4BF3-B2FB-CEC17D4393B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E24FDE8-B4CD-4C6E-997D-8AB9AE1762A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="3510" windowWidth="13440" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="13440" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>IBU 200 MG</t>
+    <t>IBU 250 MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 200 MG</v>
+        <v>IBU 250 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E24FDE8-B4CD-4C6E-997D-8AB9AE1762A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4650F7D9-6691-4412-9725-2DC8B628D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="13440" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>IBU 250 MG</t>
+    <t>IBU 270 MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 250 MG</v>
+        <v>IBU 270 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4650F7D9-6691-4412-9725-2DC8B628D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDE729C-5CF2-4951-A1AD-71BBAB641C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="13440" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>IBU 270 MG</t>
+    <t>IBU 400 MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 270 MG</v>
+        <v>IBU 400 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDE729C-5CF2-4951-A1AD-71BBAB641C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEE8647-88C3-4F3C-B831-B407F30D91B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="2550" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>IBU 400 MG</t>
+    <t>IBU 500 MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 400 MG</v>
+        <v>IBU 500 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEE8647-88C3-4F3C-B831-B407F30D91B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F4B5B-406E-4D23-B53D-ADC4B37728F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="2550" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>IBU 500 MG</t>
+    <t>IBU 600 MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 500 MG</v>
+        <v>IBU 600 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F4B5B-406E-4D23-B53D-ADC4B37728F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7799A985-5F0A-4129-BE67-22D555CDD306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>IBU 600 MG</t>
+    <t>IBU 650 MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 600 MG</v>
+        <v>IBU 650 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7799A985-5F0A-4129-BE67-22D555CDD306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4559BA0-EA57-4C69-8410-EDA0E91E3177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>IBU 650 MG</t>
+    <t>IBU 750 MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 650 MG</v>
+        <v>IBU 750 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4559BA0-EA57-4C69-8410-EDA0E91E3177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CCDCC-78CF-40D5-B474-E78A2B5B8248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>IBU 750 MG</t>
+    <t>IBU 850 MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 750 MG</v>
+        <v>IBU 850 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CCDCC-78CF-40D5-B474-E78A2B5B8248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A90E8E-183F-4434-8598-4ADF37915784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>IBU 850 MG</t>
+    <t>IBU 870 MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 850 MG</v>
+        <v>IBU 870 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A90E8E-183F-4434-8598-4ADF37915784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945A37F-E78D-4721-A5D3-02D6151572C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,10 +296,10 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>IBU 870 MG</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -842,7 +842,7 @@
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE21942-4C65-4C3C-9E26-C7BBADC81DED}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1315,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945A37F-E78D-4721-A5D3-02D6151572C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDED0AF8-9113-4AE2-B24F-AB5D6AC270AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="20265" windowHeight="9270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,10 +296,10 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>IBU 870 MG</t>
-  </si>
-  <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>IBU 900 MG</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -842,7 +842,7 @@
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 870 MG</v>
+        <v>IBU 900 MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1273,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE21942-4C65-4C3C-9E26-C7BBADC81DED}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1315,7 +1315,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDED0AF8-9113-4AE2-B24F-AB5D6AC270AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A210BB39-10E3-4140-8DAA-0FACC9B1BDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="20265" windowHeight="9270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>IBU 900 MG</t>
+    <t>Dolo 260MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 900 MG</v>
+        <v>Dolo 260MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A210BB39-10E3-4140-8DAA-0FACC9B1BDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FE0775-C55F-4B61-B159-94FD6CE08640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="20265" windowHeight="9270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 260MG</t>
+    <t>Dolo 320MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 260MG</v>
+        <v>Dolo 320MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FE0775-C55F-4B61-B159-94FD6CE08640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7942AC-8E47-4B26-B5AA-191C100FF9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="20265" windowHeight="9270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 320MG</t>
+    <t>Dolo 350MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 320MG</v>
+        <v>Dolo 350MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7942AC-8E47-4B26-B5AA-191C100FF9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6601BCE-C5A5-4946-A2F5-8A4B22929C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="1815" windowWidth="20265" windowHeight="9270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 350MG</t>
+    <t>IBU 350MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 350MG</v>
+        <v>IBU 350MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6601BCE-C5A5-4946-A2F5-8A4B22929C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31C5FAD-867B-409C-B363-7BF9E58069C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="20265" windowHeight="9270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20265" windowHeight="9270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>IBU 350MG</t>
+    <t>IBU 420MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 350MG</v>
+        <v>IBU 420MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31C5FAD-867B-409C-B363-7BF9E58069C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739499B9-BFAB-4A05-A5F9-C84A0F4FEA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20265" windowHeight="9270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>IBU 420MG</t>
+    <t>IBU600MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU 420MG</v>
+        <v>IBU600MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739499B9-BFAB-4A05-A5F9-C84A0F4FEA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5AC64D-56E0-44A8-9E18-544EC79C131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>IBU600MG</t>
+    <t>Dolo 90MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>IBU600MG</v>
+        <v>Dolo 90MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5AC64D-56E0-44A8-9E18-544EC79C131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4884DBE7-7D80-4E9E-ABA8-878F0E1A3A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 90MG</t>
+    <t>Dolo 95MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 90MG</v>
+        <v>Dolo 95MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4884DBE7-7D80-4E9E-ABA8-878F0E1A3A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB92C1-2859-49A5-A489-7987E39AC482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 95MG</t>
+    <t>Dolo 97MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 95MG</v>
+        <v>Dolo 97MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB92C1-2859-49A5-A489-7987E39AC482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD3CF13-5DC2-459D-A5BD-7CC35929BEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 97MG</t>
+    <t>Dolo 101MG</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 97MG</v>
+        <v>Dolo 101MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD3CF13-5DC2-459D-A5BD-7CC35929BEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6689047D-0F1B-4B26-B09A-889B29D366D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 101MG</t>
+    <t>Dolo 102MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 101MG</v>
+        <v>Dolo 102MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6689047D-0F1B-4B26-B09A-889B29D366D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED87B9E8-CDB2-4B55-ADCC-BB7C11E90C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="3510" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 102MG</t>
+    <t>Dolo 106MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 102MG</v>
+        <v>Dolo 106MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED87B9E8-CDB2-4B55-ADCC-BB7C11E90C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81D1DDB-54CD-4BD0-BAE3-7F8205760E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="3510" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="1830" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 106MG</t>
+    <t>Dolo 108MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 106MG</v>
+        <v>Dolo 108MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81D1DDB-54CD-4BD0-BAE3-7F8205760E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6A32A3-B74E-42B4-823C-908AD6FB33F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1650" yWindow="1830" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 108MG</t>
+    <t>Dolo 110MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 108MG</v>
+        <v>Dolo 110MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6A32A3-B74E-42B4-823C-908AD6FB33F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F566727-1E0D-47ED-85D7-2C5705A3BCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1650" yWindow="1830" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 110MG</t>
+    <t>Dolo 114MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 110MG</v>
+        <v>Dolo 114MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F566727-1E0D-47ED-85D7-2C5705A3BCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D901810D-97BE-4A77-8BE6-B98C6344AFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1830" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dolo 114MG</t>
+    <t>Crocin 101MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 114MG</v>
+        <v>Crocin 101MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D901810D-97BE-4A77-8BE6-B98C6344AFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DAAEAB-14FE-4BB1-95C3-63FA8D9A6AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 101MG</t>
+    <t>Crocin 111MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 101MG</v>
+        <v>Crocin 111MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DAAEAB-14FE-4BB1-95C3-63FA8D9A6AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DC0CAB-4698-4BB6-9CA5-9616D463B831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 111MG</t>
+    <t>Crocin 113MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 111MG</v>
+        <v>Crocin 113MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DC0CAB-4698-4BB6-9CA5-9616D463B831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599B5050-46C5-41B1-AB5F-A957C7028B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 113MG</t>
+    <t>Crocin 114MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 113MG</v>
+        <v>Crocin 114MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599B5050-46C5-41B1-AB5F-A957C7028B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B898BD-D841-4A90-8845-50A4020E6D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 114MG</t>
+    <t>Crocin 115MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 114MG</v>
+        <v>Crocin 115MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B898BD-D841-4A90-8845-50A4020E6D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA1150D-9EA3-4BEA-86AA-1B0345A26F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 115MG</t>
+    <t>Crocin 117MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 115MG</v>
+        <v>Crocin 117MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA1150D-9EA3-4BEA-86AA-1B0345A26F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C6F5B-BB74-4B5C-BA40-B335305C2578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 117MG</t>
+    <t>Crocin 118MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 117MG</v>
+        <v>Crocin 118MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C6F5B-BB74-4B5C-BA40-B335305C2578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4F1120-2F26-44B3-913B-4CEE4547237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 118MG</t>
+    <t>Crocin 119MG</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 118MG</v>
+        <v>Crocin 119MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4F1120-2F26-44B3-913B-4CEE4547237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FA113A-201D-4371-BD71-12ED7E276ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 119MG</t>
+    <t>Crocin 120MG</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 119MG</v>
+        <v>Crocin 120MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FA113A-201D-4371-BD71-12ED7E276ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD03303E-DD43-4709-B386-CBE0D990BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 120MG</t>
+    <t>Crocin 121MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 120MG</v>
+        <v>Crocin 121MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD03303E-DD43-4709-B386-CBE0D990BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B89546D-30E2-4671-9B4F-D50DFD812FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 121MG</t>
+    <t>Crocin 122MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 121MG</v>
+        <v>Crocin 122MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B89546D-30E2-4671-9B4F-D50DFD812FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126EA051-D0C0-4970-AE4D-33D45BEDAFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 122MG</t>
+    <t>Crocin 123MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 122MG</v>
+        <v>Crocin 123MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126EA051-D0C0-4970-AE4D-33D45BEDAFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885491AF-A36D-4693-93C3-5884ADE0DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 123MG</t>
+    <t>Crocin 124MG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 123MG</v>
+        <v>Crocin 124MG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885491AF-A36D-4693-93C3-5884ADE0DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A753FE5-B13E-453B-96EF-208184854C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Crocin 124MG</t>
+    <t>Bcomplex</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Crocin 124MG</v>
+        <v>Bcomplex</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A753FE5-B13E-453B-96EF-208184854C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAC962C-C43F-4E78-A535-95773121738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Bcomplex</t>
+    <t>BcomplexB</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Bcomplex</v>
+        <v>BcomplexB</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAC962C-C43F-4E78-A535-95773121738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4673D2AD-2DF7-42CB-BE67-4B6FDD6F5DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>BcomplexB</t>
+    <t>BcomplexC</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>BcomplexB</v>
+        <v>BcomplexC</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4673D2AD-2DF7-42CB-BE67-4B6FDD6F5DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55191F8-D426-40D9-BC73-BFB5F0A688D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>BcomplexC</t>
+    <t>ZincovitA</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>BcomplexC</v>
+        <v>ZincovitA</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55191F8-D426-40D9-BC73-BFB5F0A688D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF0FC9-14F6-42B6-8F79-9307A4EB448F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitA</t>
+    <t>ZincovitB</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitA</v>
+        <v>ZincovitB</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF0FC9-14F6-42B6-8F79-9307A4EB448F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBDA243-0720-4968-841A-11D3594C7FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitB</t>
+    <t>ZincovitC</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitB</v>
+        <v>ZincovitC</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBDA243-0720-4968-841A-11D3594C7FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B288D4-E969-4200-A159-6B8D42C1BE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitC</t>
+    <t>ZincovitD</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitC</v>
+        <v>ZincovitD</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B288D4-E969-4200-A159-6B8D42C1BE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013452D3-63FF-4DDF-AF3F-DDF5D7B714C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitD</t>
+    <t>ZincovitE</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitD</v>
+        <v>ZincovitE</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013452D3-63FF-4DDF-AF3F-DDF5D7B714C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E226963-61BD-421E-AB5C-9811702F3BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitE</t>
+    <t>ZincovitF</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitE</v>
+        <v>ZincovitF</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E226963-61BD-421E-AB5C-9811702F3BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F395AE0-63DD-48B1-B002-D44052113680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitF</t>
+    <t>ZincovitG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitF</v>
+        <v>ZincovitG</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F395AE0-63DD-48B1-B002-D44052113680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B66AF14-A3B1-42BF-81BD-DD730179018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitG</t>
+    <t>ZincovitH</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitG</v>
+        <v>ZincovitH</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B66AF14-A3B1-42BF-81BD-DD730179018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB7D1FF-9EFA-488F-9DF9-30B8BDF4BC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitH</t>
+    <t>ZincovitJ</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitH</v>
+        <v>ZincovitJ</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB7D1FF-9EFA-488F-9DF9-30B8BDF4BC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8E09B7-62DA-456E-81FA-672189513A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8E09B7-62DA-456E-81FA-672189513A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E4E52-6886-4B7C-A071-3DCC2FDA05A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitJ</t>
+    <t>ZincovitK</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitJ</v>
+        <v>ZincovitK</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E4E52-6886-4B7C-A071-3DCC2FDA05A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509755E1-82C5-41F0-ACFF-47F27A60C0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitK</t>
+    <t>ZincovitL</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitK</v>
+        <v>ZincovitL</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509755E1-82C5-41F0-ACFF-47F27A60C0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D93E4A-2CED-447C-ABC8-4CB8154BB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitL</t>
+    <t>ZincovitM</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitL</v>
+        <v>ZincovitM</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D93E4A-2CED-447C-ABC8-4CB8154BB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2D5D65-B5CE-40A5-8D40-21DBFC1E41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitM</t>
+    <t>Zincovitn</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitM</v>
+        <v>Zincovitn</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2D5D65-B5CE-40A5-8D40-21DBFC1E41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB4424-2D45-4EA9-BCD7-8E926C96603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Zincovitn</t>
+    <t>ZincovitO</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zincovitn</v>
+        <v>ZincovitO</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB4424-2D45-4EA9-BCD7-8E926C96603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E74E54-48D5-438F-8966-DB7D19437924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitO</t>
+    <t>ZincovitP</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitO</v>
+        <v>ZincovitP</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E74E54-48D5-438F-8966-DB7D19437924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5B0EDB-9A8B-44DE-8F12-4DD8FFCB34B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitP</t>
+    <t>ZincovitR</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitP</v>
+        <v>ZincovitR</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5B0EDB-9A8B-44DE-8F12-4DD8FFCB34B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8CC585-4FF5-4DB9-A7EB-E5B9C6EAE95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitR</t>
+    <t>ZincovitS</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitR</v>
+        <v>ZincovitS</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8CC585-4FF5-4DB9-A7EB-E5B9C6EAE95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8FE8B3-5E30-4D5E-B23C-0C2256EFEDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ZincovitS</t>
+    <t>Robia</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincovitS</v>
+        <v>Robia</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8FE8B3-5E30-4D5E-B23C-0C2256EFEDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A73A0-55D7-41DE-AEF4-D37114BD2979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Robia</t>
+    <t>RobiaA</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Robia</v>
+        <v>RobiaA</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A73A0-55D7-41DE-AEF4-D37114BD2979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0349BD4-B813-4D6C-82D9-35C5F26A6380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>RobiaA</t>
+    <t>RobiaB</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>RobiaA</v>
+        <v>RobiaB</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0349BD4-B813-4D6C-82D9-35C5F26A6380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4508C574-0860-4A22-B804-9CC32F602E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>RobiaB</t>
+    <t>RobiaC</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>RobiaB</v>
+        <v>RobiaC</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4508C574-0860-4A22-B804-9CC32F602E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF179BCA-FC64-45BE-91AB-A8B6E39E3DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>RobiaC</t>
+    <t>RobiaD</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>RobiaC</v>
+        <v>RobiaD</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF179BCA-FC64-45BE-91AB-A8B6E39E3DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B48117-CE28-44FA-B60D-B02067FC5254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>RobiaD</t>
+    <t>RobiaE</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>RobiaD</v>
+        <v>RobiaE</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B48117-CE28-44FA-B60D-B02067FC5254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B97A111-DBED-44BD-97FE-7F81949EEC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>RobiaE</t>
+    <t>RobiaF</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>RobiaE</v>
+        <v>RobiaF</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B97A111-DBED-44BD-97FE-7F81949EEC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D1B85D-9860-4FC1-8151-EF52857E256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>RobiaF</t>
+    <t>LinuxA</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>RobiaF</v>
+        <v>LinuxA</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D1B85D-9860-4FC1-8151-EF52857E256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC373B46-F043-4346-B8F6-3286DD58CF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>LinuxA</t>
+    <t>PrereleaseA</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>LinuxA</v>
+        <v>PrereleaseA</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC373B46-F043-4346-B8F6-3286DD58CF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7CAF3C-1205-488B-B43C-2CDA8F352559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>PrereleaseA</t>
+    <t>PrereleaseB</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>PrereleaseA</v>
+        <v>PrereleaseB</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7CAF3C-1205-488B-B43C-2CDA8F352559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ABCA46-61C8-4255-8596-6844A515F77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>PrereleaseB</t>
+    <t>PrereleaseD</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>PrereleaseB</v>
+        <v>PrereleaseD</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ABCA46-61C8-4255-8596-6844A515F77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B832CB-C875-47DD-832C-766AE2E54B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>PrereleaseD</t>
+    <t>PrereleaseAb</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>PrereleaseD</v>
+        <v>PrereleaseAb</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B832CB-C875-47DD-832C-766AE2E54B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEA049E-AAE2-43F1-AA3E-1C37487B5EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>PrereleaseAb</t>
+    <t>Abusic</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>PrereleaseAb</v>
+        <v>Abusic</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEA049E-AAE2-43F1-AA3E-1C37487B5EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24078728-0D59-4887-BB18-870BDDAEF2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24078728-0D59-4887-BB18-870BDDAEF2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0F2D4B-D4A5-4D98-8FD2-7FAC32159FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Abusic</t>
+    <t>AbusicA</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic</v>
+        <v>AbusicA</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0F2D4B-D4A5-4D98-8FD2-7FAC32159FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329C7498-E682-4D37-8D3D-3F06E15FC5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>AbusicA</t>
+    <t>AbusicLinA</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>AbusicA</v>
+        <v>AbusicLinA</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329C7498-E682-4D37-8D3D-3F06E15FC5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8FE25A-DA09-49FA-9852-60424070554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>AbusicLinA</t>
+    <t>AbusicLinB</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>AbusicLinA</v>
+        <v>AbusicLinB</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8FE25A-DA09-49FA-9852-60424070554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95D0D19-C153-40A4-B4E6-4D5B63FEB9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>AbusicLinB</t>
+    <t>AbusicLinc</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>AbusicLinB</v>
+        <v>AbusicLinc</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95D0D19-C153-40A4-B4E6-4D5B63FEB9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4A2629-2606-4757-8D07-8FCE4EEF8CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>AbusicLinc</t>
+    <t>AbusicLind</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>AbusicLinc</v>
+        <v>AbusicLind</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4A2629-2606-4757-8D07-8FCE4EEF8CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB65937-1C7D-49AE-BB99-C9352FD2114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>AbusicLind</t>
+    <t>Abusic10ml</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>AbusicLind</v>
+        <v>Abusic10ml</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB65937-1C7D-49AE-BB99-C9352FD2114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A57D2B-6D19-4333-99A2-4C46E24BD352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Abusic10ml</t>
+    <t>Abusic12ml</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic10ml</v>
+        <v>Abusic12ml</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A57D2B-6D19-4333-99A2-4C46E24BD352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBEC4C9-36D1-4294-8301-AB580E6EC4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Abusic12ml</t>
+    <t>Abusic13ml</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic12ml</v>
+        <v>Abusic13ml</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBEC4C9-36D1-4294-8301-AB580E6EC4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362098CD-5274-4879-9DD6-33DCCADA8A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>ExtraBatch</t>
   </si>
   <si>
-    <t>Manoj@2023</t>
-  </si>
-  <si>
     <t>Default Pharmacy</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>Abusic13ml</t>
+  </si>
+  <si>
+    <t>Manoj@2025</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,13 +695,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{74AAE140-4AA4-40CF-9A37-EC50DF49193E}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{FB4A4672-53BF-4847-818A-1E666BA547AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -726,7 +726,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -842,7 +842,7 @@
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -890,7 +890,7 @@
         <v>45</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>47</v>
@@ -1039,10 +1039,10 @@
         <v>50</v>
       </c>
       <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
         <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>28</v>
@@ -1069,7 +1069,7 @@
         <v>45</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>37</v>
@@ -1153,7 +1153,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>47</v>
@@ -1240,7 +1240,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>47</v>
@@ -1249,7 +1249,7 @@
         <v>37</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>38</v>
@@ -1261,7 +1261,7 @@
         <v>44</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1289,52 +1289,52 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1400,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>47</v>
@@ -1450,13 +1450,13 @@
         <v>31</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1467,30 +1467,30 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1517,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362098CD-5274-4879-9DD6-33DCCADA8A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D48C0B8-EE1A-435C-9EE6-BA39CDDE2704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,10 +296,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Abusic13ml</t>
-  </si>
-  <si>
     <t>Manoj@2025</t>
+  </si>
+  <si>
+    <t>Abusic14ml</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -842,7 +842,7 @@
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic13ml</v>
+        <v>Abusic14ml</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D48C0B8-EE1A-435C-9EE6-BA39CDDE2704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F76DFD-24EF-4519-8992-FF235F30F1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>Manoj@2025</t>
   </si>
   <si>
-    <t>Abusic14ml</t>
+    <t>Abusic15ml</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic14ml</v>
+        <v>Abusic15ml</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F76DFD-24EF-4519-8992-FF235F30F1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321FC3E3-0C25-4CE1-A26D-E9CB158C4CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>Manoj@2025</t>
   </si>
   <si>
-    <t>Abusic15ml</t>
+    <t>Abusic16ml</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic15ml</v>
+        <v>Abusic16ml</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321FC3E3-0C25-4CE1-A26D-E9CB158C4CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892F4B34-8778-499C-A2CB-1253F06326A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>Manoj@2025</t>
   </si>
   <si>
-    <t>Abusic16ml</t>
+    <t>Abusic17ml</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic16ml</v>
+        <v>Abusic17ml</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892F4B34-8778-499C-A2CB-1253F06326A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA8C901-265C-4F4D-A0E2-EBAC5C8F200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>Manoj@2025</t>
   </si>
   <si>
-    <t>Abusic17ml</t>
+    <t>Abusic18ml</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic17ml</v>
+        <v>Abusic18ml</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA8C901-265C-4F4D-A0E2-EBAC5C8F200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3AE91-2E39-4483-B28E-84C082110159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>Manoj@2025</t>
   </si>
   <si>
-    <t>Abusic18ml</t>
+    <t>Abusic19ml</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic18ml</v>
+        <v>Abusic19ml</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3AE91-2E39-4483-B28E-84C082110159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DC1893-9CC5-45E5-8CB8-A803AEAF4395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>Manoj@2025</t>
   </si>
   <si>
-    <t>Abusic19ml</t>
+    <t>Abusic21ml</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic19ml</v>
+        <v>Abusic21ml</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DC1893-9CC5-45E5-8CB8-A803AEAF4395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82145123-B51C-43AC-AEE2-1C3A4FADDC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
   <si>
     <t>username</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>manoj.auto</t>
-  </si>
-  <si>
-    <t>Manoj@2024</t>
   </si>
   <si>
     <t>stock_name</t>
@@ -664,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -723,18 +720,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -768,150 +765,150 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
       <c r="V1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" t="s">
-        <v>40</v>
-      </c>
       <c r="X1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="V2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -949,73 +946,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
       <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
       <c r="W1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -1024,70 +1021,70 @@
         <v>Abusic21ml</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="U2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="W2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1115,66 +1112,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1202,66 +1199,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1289,52 +1286,52 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1362,66 +1359,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1447,50 +1444,50 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="7">
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1514,18 +1511,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82145123-B51C-43AC-AEE2-1C3A4FADDC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025AAB14-C522-404C-94CD-69662C3DA03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>Manoj@2025</t>
   </si>
   <si>
-    <t>Abusic21ml</t>
+    <t>Abusic22ml</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -743,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic21ml</v>
+        <v>Abusic22ml</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025AAB14-C522-404C-94CD-69662C3DA03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F49B2F9-4A79-486F-B983-C004DC17D480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Manoj@2025</t>
   </si>
   <si>
-    <t>Abusic22ml</t>
+    <t>Abusic25ml</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic22ml</v>
+        <v>Abusic25ml</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F49B2F9-4A79-486F-B983-C004DC17D480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E761633-E559-44DC-BA19-A43283C01026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Manoj@2025</t>
   </si>
   <si>
-    <t>Abusic25ml</t>
+    <t>biozen</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic25ml</v>
+        <v>biozen</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
